--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -31,10 +31,25 @@
     <t xml:space="preserve">SPH-002T-P0.5S</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/bourns-inc/CC453232A-1R0KL/12756230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/texas-instruments/BQ25887RGET/10270194</t>
+  </si>
+  <si>
     <t xml:space="preserve">10103594-0001LF</t>
   </si>
   <si>
     <t xml:space="preserve">usb con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS61230DRCR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS61232DRC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUST HAVE FIXED 5V out</t>
   </si>
 </sst>
 </file>
@@ -118,17 +133,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -148,44 +167,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1" display="TPS61230DRCR"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">TPS61230DRCR </t>
   </si>
   <si>
-    <t xml:space="preserve">TPS61232DRC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUST HAVE FIXED 5V out</t>
+    <t xml:space="preserve">Power Control Tranistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/goford-semiconductor/G6N02L/13664832</t>
   </si>
 </sst>
 </file>
@@ -167,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,11 +219,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>9</v>
       </c>
     </row>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hailey\Desktop\Current ti92Project\TI92-revive-main\TI92-RPI-Zero\CM4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B4B5D-2C80-4333-82CE-0E6B21E718A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9015C-EB90-498A-8F48-FE1881F3D4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>TQ2SA-L2-3V</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stewart-connector/SS-52100-001/7902377</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,8 +499,13 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -509,8 +517,9 @@
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" display="TPS61230DRCR" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A22" r:id="rId2" display="https://www.mouser.com/ProductDetail/Panasonic-Industrial-Devices/TQ2SA-L2-3V?qs=UO%2Fx91QLkSDLsw6acU2Ugw%3D%3D" xr:uid="{87E714EF-B81C-41ED-BAED-F46E1609C932}"/>
+    <hyperlink ref="A17" r:id="rId3" xr:uid="{12AC56B9-A9A6-4FDB-A484-825C71C68AF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hailey\Desktop\Current ti92Project\TI92-revive-main\TI92-RPI-Zero\CM4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE9015C-EB90-498A-8F48-FE1881F3D4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA68E7A3-C48F-4BEE-A698-2621342F50AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -61,13 +57,28 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/stewart-connector/SS-52100-001/7902377</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/EMH61T2R/5721184</t>
+  </si>
+  <si>
+    <t>Magic Two Transistors</t>
+  </si>
+  <si>
+    <t>Usb controler</t>
+  </si>
+  <si>
+    <t>NCP114ASN330T1G</t>
+  </si>
+  <si>
+    <t>usb controller powersupply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,6 +102,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -123,6 +140,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,40 +456,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -479,36 +497,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">Crystle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1v regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/texas-instruments/TLV74010PDBVR/12642176</t>
   </si>
 </sst>
 </file>
@@ -284,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,6 +397,16 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R27" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P29" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -82,7 +82,13 @@
     <t xml:space="preserve">Crystle</t>
   </si>
   <si>
+    <t xml:space="preserve">The display</t>
+  </si>
+  <si>
     <t xml:space="preserve">1v regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.waveshare.com/4inch-RPi-LCD-C.htm</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.com/en/products/detail/texas-instruments/TLV74010PDBVR/12642176</t>
@@ -293,10 +299,10 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -314,12 +320,12 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -338,7 +344,7 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P12" s="0" t="s">
+      <c r="P12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -346,7 +352,7 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="P13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -354,7 +360,7 @@
       <c r="A14" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -364,12 +370,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P18" s="0" t="s">
+      <c r="P18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="5" t="s">
@@ -377,7 +383,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P21" s="0" t="s">
+      <c r="P21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -390,23 +396,29 @@
       <c r="P26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="0" t="s">
+      <c r="R26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R27" s="0" t="s">
+      <c r="R27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="P29" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="0" t="s">
-        <v>21</v>
+      <c r="C30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.com/en/products/detail/texas-instruments/TLV74010PDBVR/12642176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/delta-electronics/BSB0205HP-00EFG/11201159?s=N4IgTCBcDaIEIGU4AYzIKwAkAKBaZyAogGIDiIAugL5A</t>
   </si>
 </sst>
 </file>
@@ -296,13 +302,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -406,7 +412,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -414,11 +420,21 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.com/en/products/detail/delta-electronics/BSB0205HP-00EFG/11201159?s=N4IgTCBcDaIEIGU4AYzIKwAkAKBaZyAogGIDiIAugL5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/molex/5031821852/4693482</t>
   </si>
 </sst>
 </file>
@@ -302,13 +308,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -428,13 +434,23 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CM4/bom.xlsx
+++ b/CM4/bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">B2B-PH-K-S(LF)(SN)</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">usb con</t>
   </si>
   <si>
-    <t xml:space="preserve">Magic Two Transistors</t>
+    <t xml:space="preserve">Magic Two Transistors for power</t>
   </si>
   <si>
     <t xml:space="preserve">TPS61230DRCR </t>
@@ -52,7 +52,13 @@
     <t xml:space="preserve">https://www.digikey.com/en/products/detail/rohm-semiconductor/EMH61T2R/5721184</t>
   </si>
   <si>
+    <t xml:space="preserve">Transistors for lcd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Power Control Tranistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/on-semiconductor/NUS2401SNT1G/13442745</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.com/en/products/detail/goford-semiconductor/G6N02L/13664832</t>
@@ -311,10 +317,10 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -371,86 +377,94 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P18" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P21" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P26" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R27" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>26</v>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>27</v>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
